--- a/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Klb.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD7/LR-pairs_lrc2p/Fgf15-Klb.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -85,13 +85,13 @@
     <t>MuSCs</t>
   </si>
   <si>
+    <t>Fgf15</t>
+  </si>
+  <si>
+    <t>Klb</t>
+  </si>
+  <si>
     <t>Resolving-Mac</t>
-  </si>
-  <si>
-    <t>Fgf15</t>
-  </si>
-  <si>
-    <t>Klb</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T17"/>
+  <dimension ref="A1:T13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H2">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I2">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J2">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -555,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.448926</v>
+        <v>0.4958466666666667</v>
       </c>
       <c r="N2">
-        <v>1.346778</v>
+        <v>1.48754</v>
       </c>
       <c r="O2">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="P2">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="Q2">
-        <v>0.01639627394</v>
+        <v>0.03758567318000001</v>
       </c>
       <c r="R2">
-        <v>0.14756646546</v>
+        <v>0.3382710586200001</v>
       </c>
       <c r="S2">
-        <v>0.01476378492552432</v>
+        <v>0.03305064634802937</v>
       </c>
       <c r="T2">
-        <v>0.01476378492552432</v>
+        <v>0.03305064634802938</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
+        <v>23</v>
+      </c>
+      <c r="C3" t="s">
         <v>24</v>
-      </c>
-      <c r="C3" t="s">
-        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H3">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I3">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J3">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>5.267664</v>
       </c>
       <c r="O3">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912007</v>
       </c>
       <c r="P3">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912008</v>
       </c>
       <c r="Q3">
-        <v>0.06413088271999999</v>
+        <v>0.133098066288</v>
       </c>
       <c r="R3">
-        <v>0.57717794448</v>
+        <v>1.197882596592</v>
       </c>
       <c r="S3">
-        <v>0.05774571485124284</v>
+        <v>0.117038667830274</v>
       </c>
       <c r="T3">
-        <v>0.05774571485124284</v>
+        <v>0.117038667830274</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,31 +646,31 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
         <v>24</v>
-      </c>
-      <c r="C4" t="s">
-        <v>25</v>
       </c>
       <c r="D4" t="s">
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H4">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I4">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J4">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.03781</v>
+        <v>1.175512</v>
       </c>
       <c r="N4">
-        <v>3.11343</v>
+        <v>3.526536</v>
       </c>
       <c r="O4">
-        <v>0.297518448278597</v>
+        <v>0.3313543417264301</v>
       </c>
       <c r="P4">
-        <v>0.2975184482785971</v>
+        <v>0.3313543417264302</v>
       </c>
       <c r="Q4">
-        <v>0.03790428056666666</v>
+        <v>0.08910498511200002</v>
       </c>
       <c r="R4">
-        <v>0.3411385251</v>
+        <v>0.8019448660080001</v>
       </c>
       <c r="S4">
-        <v>0.0341303547434508</v>
+        <v>0.07835372102235511</v>
       </c>
       <c r="T4">
-        <v>0.0341303547434508</v>
+        <v>0.07835372102235512</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>23</v>
+      </c>
+      <c r="C5" t="s">
         <v>24</v>
       </c>
-      <c r="C5" t="s">
+      <c r="D5" t="s">
         <v>25</v>
       </c>
-      <c r="D5" t="s">
-        <v>23</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>0.03652333333333333</v>
+        <v>0.07580100000000001</v>
       </c>
       <c r="H5">
-        <v>0.10957</v>
+        <v>0.227403</v>
       </c>
       <c r="I5">
-        <v>0.1147167677867527</v>
+        <v>0.2364650501155793</v>
       </c>
       <c r="J5">
-        <v>0.1147167677867526</v>
+        <v>0.2364650501155794</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.2455966666666667</v>
+        <v>0.1203513333333333</v>
       </c>
       <c r="N5">
-        <v>0.7367899999999999</v>
+        <v>0.361054</v>
       </c>
       <c r="O5">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435271</v>
       </c>
       <c r="P5">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435272</v>
       </c>
       <c r="Q5">
-        <v>0.008970008922222222</v>
+        <v>0.009122751417999999</v>
       </c>
       <c r="R5">
-        <v>0.08073008029999999</v>
+        <v>0.082104762762</v>
       </c>
       <c r="S5">
-        <v>0.008076913266534695</v>
+        <v>0.008022014914920871</v>
       </c>
       <c r="T5">
-        <v>0.008076913266534695</v>
+        <v>0.008022014914920876</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,10 +770,10 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
         <v>24</v>
-      </c>
-      <c r="C6" t="s">
-        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
@@ -791,10 +791,10 @@
         <v>0.399987</v>
       </c>
       <c r="I6">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J6">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K6">
         <v>2</v>
@@ -803,28 +803,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.448926</v>
+        <v>0.4958466666666667</v>
       </c>
       <c r="N6">
-        <v>1.346778</v>
+        <v>1.48754</v>
       </c>
       <c r="O6">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="P6">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="Q6">
-        <v>0.059854854654</v>
+        <v>0.06611074022000001</v>
       </c>
       <c r="R6">
-        <v>0.538693691886</v>
+        <v>0.59499666198</v>
       </c>
       <c r="S6">
-        <v>0.05389542795478413</v>
+        <v>0.05813392470991686</v>
       </c>
       <c r="T6">
-        <v>0.05389542795478412</v>
+        <v>0.05813392470991686</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,10 +832,10 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
         <v>24</v>
-      </c>
-      <c r="C7" t="s">
-        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
@@ -853,10 +853,10 @@
         <v>0.399987</v>
       </c>
       <c r="I7">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J7">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>5.267664</v>
       </c>
       <c r="O7">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912007</v>
       </c>
       <c r="P7">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912008</v>
       </c>
       <c r="Q7">
         <v>0.234110791152</v>
@@ -883,10 +883,10 @@
         <v>2.106997120368</v>
       </c>
       <c r="S7">
-        <v>0.2108016359058508</v>
+        <v>0.2058633598915925</v>
       </c>
       <c r="T7">
-        <v>0.2108016359058508</v>
+        <v>0.2058633598915925</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,10 +894,10 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
         <v>24</v>
-      </c>
-      <c r="C8" t="s">
-        <v>25</v>
       </c>
       <c r="D8" t="s">
         <v>22</v>
@@ -915,10 +915,10 @@
         <v>0.399987</v>
       </c>
       <c r="I8">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J8">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.03781</v>
+        <v>1.175512</v>
       </c>
       <c r="N8">
-        <v>3.11343</v>
+        <v>3.526536</v>
       </c>
       <c r="O8">
-        <v>0.297518448278597</v>
+        <v>0.3313543417264301</v>
       </c>
       <c r="P8">
-        <v>0.2975184482785971</v>
+        <v>0.3313543417264302</v>
       </c>
       <c r="Q8">
-        <v>0.13837016949</v>
+        <v>0.156729839448</v>
       </c>
       <c r="R8">
-        <v>1.24533152541</v>
+        <v>1.410568555032</v>
       </c>
       <c r="S8">
-        <v>0.1245933942025067</v>
+        <v>0.1378190692759935</v>
       </c>
       <c r="T8">
-        <v>0.1245933942025066</v>
+        <v>0.1378190692759935</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,13 +956,13 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
         <v>24</v>
       </c>
-      <c r="C9" t="s">
+      <c r="D9" t="s">
         <v>25</v>
-      </c>
-      <c r="D9" t="s">
-        <v>23</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -977,10 +977,10 @@
         <v>0.399987</v>
       </c>
       <c r="I9">
-        <v>0.4187753563632367</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="J9">
-        <v>0.4187753563632365</v>
+        <v>0.4159265533022002</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.2455966666666667</v>
+        <v>0.1203513333333333</v>
       </c>
       <c r="N9">
-        <v>0.7367899999999999</v>
+        <v>0.361054</v>
       </c>
       <c r="O9">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435271</v>
       </c>
       <c r="P9">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435272</v>
       </c>
       <c r="Q9">
-        <v>0.03274515797</v>
+        <v>0.016046322922</v>
       </c>
       <c r="R9">
-        <v>0.2947064217299999</v>
+        <v>0.144416906298</v>
       </c>
       <c r="S9">
-        <v>0.02948489830009504</v>
+        <v>0.01411019942469736</v>
       </c>
       <c r="T9">
-        <v>0.02948489830009503</v>
+        <v>0.01411019942469737</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,31 +1018,31 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
         <v>24</v>
-      </c>
-      <c r="C10" t="s">
-        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
       </c>
       <c r="E10">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F10">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G10">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H10">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I10">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J10">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1051,28 +1051,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>0.448926</v>
+        <v>0.4958466666666667</v>
       </c>
       <c r="N10">
-        <v>1.346778</v>
+        <v>1.48754</v>
       </c>
       <c r="O10">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="P10">
-        <v>0.1286977066244471</v>
+        <v>0.1397696882980165</v>
       </c>
       <c r="Q10">
-        <v>0.049727084094</v>
+        <v>0.05525169822000001</v>
       </c>
       <c r="R10">
-        <v>0.4475437568460001</v>
+        <v>0.49726528398</v>
       </c>
       <c r="S10">
-        <v>0.04477602516424396</v>
+        <v>0.04858511724007024</v>
       </c>
       <c r="T10">
-        <v>0.04477602516424396</v>
+        <v>0.04858511724007025</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,31 +1080,31 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
         <v>24</v>
-      </c>
-      <c r="C11" t="s">
-        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
       </c>
       <c r="E11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G11">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H11">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I11">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J11">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>5.267664</v>
       </c>
       <c r="O11">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912007</v>
       </c>
       <c r="P11">
-        <v>0.5033764110106949</v>
+        <v>0.4949512317912008</v>
       </c>
       <c r="Q11">
-        <v>0.194497957872</v>
+        <v>0.195656843952</v>
       </c>
       <c r="R11">
-        <v>1.750481620848</v>
+        <v>1.760911595568</v>
       </c>
       <c r="S11">
-        <v>0.1751328398747098</v>
+        <v>0.1720492040693342</v>
       </c>
       <c r="T11">
-        <v>0.1751328398747098</v>
+        <v>0.1720492040693342</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,31 +1142,31 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
         <v>24</v>
-      </c>
-      <c r="C12" t="s">
-        <v>25</v>
       </c>
       <c r="D12" t="s">
         <v>22</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F12">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G12">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H12">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I12">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J12">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.03781</v>
+        <v>1.175512</v>
       </c>
       <c r="N12">
-        <v>3.11343</v>
+        <v>3.526536</v>
       </c>
       <c r="O12">
-        <v>0.297518448278597</v>
+        <v>0.3313543417264301</v>
       </c>
       <c r="P12">
-        <v>0.2975184482785971</v>
+        <v>0.3313543417264302</v>
       </c>
       <c r="Q12">
-        <v>0.11495717589</v>
+        <v>0.130986126648</v>
       </c>
       <c r="R12">
-        <v>1.03461458301</v>
+        <v>1.178875139832</v>
       </c>
       <c r="S12">
-        <v>0.1035115067421001</v>
+        <v>0.1151815514280815</v>
       </c>
       <c r="T12">
-        <v>0.1035115067421001</v>
+        <v>0.1151815514280815</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,31 +1204,31 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="C13" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="D13" t="s">
-        <v>23</v>
-      </c>
       <c r="E13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G13">
-        <v>0.110769</v>
+        <v>0.111429</v>
       </c>
       <c r="H13">
-        <v>0.332307</v>
+        <v>0.334287</v>
       </c>
       <c r="I13">
-        <v>0.3479162631460475</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="J13">
-        <v>0.3479162631460474</v>
+        <v>0.3476083965822204</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,276 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>0.2455966666666667</v>
+        <v>0.1203513333333333</v>
       </c>
       <c r="N13">
-        <v>0.7367899999999999</v>
+        <v>0.361054</v>
       </c>
       <c r="O13">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435271</v>
       </c>
       <c r="P13">
-        <v>0.07040743408626099</v>
+        <v>0.03392473818435272</v>
       </c>
       <c r="Q13">
-        <v>0.02720449717</v>
+        <v>0.013410628722</v>
       </c>
       <c r="R13">
-        <v>0.24484047453</v>
+        <v>0.120695658498</v>
       </c>
       <c r="S13">
-        <v>0.02449589136499357</v>
+        <v>0.01179252384473447</v>
       </c>
       <c r="T13">
-        <v>0.02449589136499357</v>
-      </c>
-    </row>
-    <row r="14" spans="1:20">
-      <c r="A14" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" t="s">
-        <v>24</v>
-      </c>
-      <c r="C14" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" t="s">
-        <v>20</v>
-      </c>
-      <c r="E14">
-        <v>2</v>
-      </c>
-      <c r="F14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G14">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H14">
-        <v>0.113271</v>
-      </c>
-      <c r="I14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J14">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K14">
-        <v>2</v>
-      </c>
-      <c r="L14">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M14">
-        <v>0.448926</v>
-      </c>
-      <c r="N14">
-        <v>1.346778</v>
-      </c>
-      <c r="O14">
-        <v>0.1286977066244471</v>
-      </c>
-      <c r="P14">
-        <v>0.1286977066244471</v>
-      </c>
-      <c r="Q14">
-        <v>0.016950098982</v>
-      </c>
-      <c r="R14">
-        <v>0.152550890838</v>
-      </c>
-      <c r="S14">
-        <v>0.01526246857989473</v>
-      </c>
-      <c r="T14">
-        <v>0.01526246857989473</v>
-      </c>
-    </row>
-    <row r="15" spans="1:20">
-      <c r="A15" t="s">
-        <v>23</v>
-      </c>
-      <c r="B15" t="s">
-        <v>24</v>
-      </c>
-      <c r="C15" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" t="s">
-        <v>21</v>
-      </c>
-      <c r="E15">
-        <v>2</v>
-      </c>
-      <c r="F15">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G15">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H15">
-        <v>0.113271</v>
-      </c>
-      <c r="I15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J15">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K15">
-        <v>3</v>
-      </c>
-      <c r="L15">
-        <v>1</v>
-      </c>
-      <c r="M15">
-        <v>1.755888</v>
-      </c>
-      <c r="N15">
-        <v>5.267664</v>
-      </c>
-      <c r="O15">
-        <v>0.5033764110106949</v>
-      </c>
-      <c r="P15">
-        <v>0.5033764110106949</v>
-      </c>
-      <c r="Q15">
-        <v>0.06629706321600001</v>
-      </c>
-      <c r="R15">
-        <v>0.596673568944</v>
-      </c>
-      <c r="S15">
-        <v>0.05969622037889138</v>
-      </c>
-      <c r="T15">
-        <v>0.05969622037889138</v>
-      </c>
-    </row>
-    <row r="16" spans="1:20">
-      <c r="A16" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" t="s">
-        <v>24</v>
-      </c>
-      <c r="C16" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" t="s">
-        <v>22</v>
-      </c>
-      <c r="E16">
-        <v>2</v>
-      </c>
-      <c r="F16">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G16">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H16">
-        <v>0.113271</v>
-      </c>
-      <c r="I16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J16">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K16">
-        <v>3</v>
-      </c>
-      <c r="L16">
-        <v>1</v>
-      </c>
-      <c r="M16">
-        <v>1.03781</v>
-      </c>
-      <c r="N16">
-        <v>3.11343</v>
-      </c>
-      <c r="O16">
-        <v>0.297518448278597</v>
-      </c>
-      <c r="P16">
-        <v>0.2975184482785971</v>
-      </c>
-      <c r="Q16">
-        <v>0.03918459217</v>
-      </c>
-      <c r="R16">
-        <v>0.35266132953</v>
-      </c>
-      <c r="S16">
-        <v>0.03528319259053952</v>
-      </c>
-      <c r="T16">
-        <v>0.03528319259053952</v>
-      </c>
-    </row>
-    <row r="17" spans="1:20">
-      <c r="A17" t="s">
-        <v>23</v>
-      </c>
-      <c r="B17" t="s">
-        <v>24</v>
-      </c>
-      <c r="C17" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" t="s">
-        <v>23</v>
-      </c>
-      <c r="E17">
-        <v>2</v>
-      </c>
-      <c r="F17">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="G17">
-        <v>0.03775700000000001</v>
-      </c>
-      <c r="H17">
-        <v>0.113271</v>
-      </c>
-      <c r="I17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="J17">
-        <v>0.1185916127039633</v>
-      </c>
-      <c r="K17">
-        <v>3</v>
-      </c>
-      <c r="L17">
-        <v>1</v>
-      </c>
-      <c r="M17">
-        <v>0.2455966666666667</v>
-      </c>
-      <c r="N17">
-        <v>0.7367899999999999</v>
-      </c>
-      <c r="O17">
-        <v>0.07040743408626099</v>
-      </c>
-      <c r="P17">
-        <v>0.07040743408626099</v>
-      </c>
-      <c r="Q17">
-        <v>0.009272993343333334</v>
-      </c>
-      <c r="R17">
-        <v>0.08345694009</v>
-      </c>
-      <c r="S17">
-        <v>0.008349731154637689</v>
-      </c>
-      <c r="T17">
-        <v>0.008349731154637689</v>
+        <v>0.01179252384473448</v>
       </c>
     </row>
   </sheetData>
